--- a/data/STA Data/Pruned Data/IBSC Teacher STA B2.xlsx
+++ b/data/STA Data/Pruned Data/IBSC Teacher STA B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/STA Data/Pruned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_084CF7C612B59FABEA3B12693B97815F7BE6F4F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04B7200-5BF4-4DCB-AB05-2F80634C52F7}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_084CF7C612B59FABEA3B12693B97815F7BE6F4F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0975BBC3-0562-49EB-B8BC-DC63DFFDD410}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="4960" windowWidth="28100" windowHeight="15910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41620" yWindow="2210" windowWidth="28100" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -648,6 +648,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,13 +978,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" customWidth="1"/>
+    <col min="27" max="27" width="43.6640625" customWidth="1"/>
+    <col min="28" max="28" width="35.25" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" customWidth="1"/>
+    <col min="30" max="30" width="27.33203125" customWidth="1"/>
+    <col min="31" max="31" width="53.5" customWidth="1"/>
+    <col min="32" max="32" width="243.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.5" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -5245,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
